--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FaceTo.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FaceTo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC166051-6773-4FCC-B3FF-4BD45F011FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF95BE41-5B02-49F6-A1D0-CAC80C6AEE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3480" yWindow="2316" windowWidth="23040" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="996" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -140,8 +140,88 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>面向</t>
+    <t>面向的修改方式</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FaceToType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>faceToType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向_直接强制转向且无过程</t>
+  </si>
+  <si>
+    <t>面向_直接强制转向有过程(unit自身的旋转速度)</t>
+  </si>
+  <si>
+    <t>面向_设置角度偏移(会叠加,有过程)</t>
+  </si>
+  <si>
+    <t>背向_直接强制转向且无过程</t>
+  </si>
+  <si>
+    <t>背向_直接强制转向有过程(unit自身的旋转速度)</t>
+  </si>
+  <si>
+    <t>背向_设置角度偏移(会叠加,有过程)</t>
+  </si>
+  <si>
+    <t>环绕切向_直接强制转向且无过程</t>
+  </si>
+  <si>
+    <t>环绕切向_直接强制转向有过程(unit自身的旋转速度)</t>
+  </si>
+  <si>
+    <t>环绕切向_设置角度偏移(会叠加,有过程)</t>
+  </si>
+  <si>
+    <t>随机_直接强制转向且无过程</t>
+  </si>
+  <si>
+    <t>随机_直接强制转向有过程(unit自身的旋转速度)</t>
+  </si>
+  <si>
+    <t>随机_设置角度偏移(会叠加,有过程)</t>
+  </si>
+  <si>
+    <t>Forward_ForceSetFaceImmediately</t>
+  </si>
+  <si>
+    <t>Forward_ForceSetFace</t>
+  </si>
+  <si>
+    <t>Forward_AddRotate</t>
+  </si>
+  <si>
+    <t>Back_ForceSetFaceImmediately</t>
+  </si>
+  <si>
+    <t>Back_ForceSetFace</t>
+  </si>
+  <si>
+    <t>Back_AddRotate</t>
+  </si>
+  <si>
+    <t>Around_ForceSetFaceImmediately</t>
+  </si>
+  <si>
+    <t>Around_ForceSetFace</t>
+  </si>
+  <si>
+    <t>Around_AddRotate</t>
+  </si>
+  <si>
+    <t>Random_ForceSetFaceImmediately</t>
+  </si>
+  <si>
+    <t>Random_ForceSetFace</t>
+  </si>
+  <si>
+    <t>Random_AddRotate</t>
   </si>
 </sst>
 </file>
@@ -546,19 +626,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="33.77734375" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -576,7 +657,9 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1"/>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H1"/>
       <c r="I1"/>
       <c r="J1"/>
@@ -604,7 +687,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2"/>
+      <c r="G2" s="3"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
@@ -638,7 +721,9 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3"/>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
@@ -668,7 +753,7 @@
       <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4"/>
+      <c r="G4" s="4"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -702,7 +787,9 @@
       <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G5"/>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
@@ -725,16 +812,228 @@
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="C6" t="s">
+        <v>29</v>
       </c>
       <c r="D6" t="str">
         <f>B6&amp;"_"&amp;C6</f>
-        <v>FaceTo_1</v>
+        <v>FaceTo_Forward_ForceSetFaceImmediately</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="str">
+        <f>B7&amp;"_"&amp;C7</f>
+        <v>FaceTo_Forward_ForceSetFace</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="str">
+        <f>B8&amp;"_"&amp;C8</f>
+        <v>FaceTo_Forward_AddRotate</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" ref="D9:D17" si="0">B9&amp;"_"&amp;C9</f>
+        <v>FaceTo_Back_ForceSetFaceImmediately</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>FaceTo_Back_ForceSetFace</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>FaceTo_Back_AddRotate</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>FaceTo_Around_ForceSetFaceImmediately</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>FaceTo_Around_ForceSetFace</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>FaceTo_Around_AddRotate</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>FaceTo_Random_ForceSetFaceImmediately</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>FaceTo_Random_ForceSetFace</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>FaceTo_Random_AddRotate</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
